--- a/REVER_DailyTracker_20200603.xlsx
+++ b/REVER_DailyTracker_20200603.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4702571F-997C-4D3F-81EC-FCB96D711087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46072225-CA3A-478C-923A-E81BC91E86D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -22,20 +22,25 @@
     <sheet name="Prabu" sheetId="11" r:id="rId7"/>
     <sheet name="Ram" sheetId="12" r:id="rId8"/>
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
-    <sheet name="Nirmal" sheetId="17" r:id="rId10"/>
-    <sheet name="Mathes" sheetId="13" r:id="rId11"/>
+    <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="40">
   <si>
     <t>Task</t>
   </si>
@@ -67,31 +72,112 @@
     <t>% of completion</t>
   </si>
   <si>
+    <t>[Backend] CRM</t>
+  </si>
+  <si>
     <t>Hold</t>
   </si>
   <si>
-    <t>29/04/2020</t>
-  </si>
-  <si>
-    <t>Rever B2C</t>
-  </si>
-  <si>
-    <t>IF full flow with technician tracking integration</t>
-  </si>
-  <si>
-    <t>APK sent.</t>
-  </si>
-  <si>
-    <t>MujiStore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
-  </si>
-  <si>
-    <t>RPA</t>
-  </si>
-  <si>
-    <t>Jiffy- Creditinfo completed for SSC10,               Selenium- Credit info and credit detail also done for SSC10</t>
+    <t>DotnetAPP</t>
+  </si>
+  <si>
+    <t>Loginpage (Frontend)</t>
+  </si>
+  <si>
+    <t>1. Datass are fetched from CRM table and displayed the results in dropdownlist dynamically
+2. Customer type dropdownlist has been created using using enum and displayed in right order
+3. Working on onchange events to select all emailid based on customer types.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Visited  customer information from the contact us  page of hayaai website has been recorded in the database using
+ PHP and MYQL
+</t>
+  </si>
+  <si>
+    <t>Hayaai website</t>
+  </si>
+  <si>
+    <t>Sending email is in progress</t>
+  </si>
+  <si>
+    <t>data insertion  and email sending are completed, whereas we have tested email sending using gmail.com for contacts.html.
+We are waiting for actual email settings for hayaai site.</t>
+  </si>
+  <si>
+    <t>Email validation and contact number validation has been completed before submiting fields values to the database.</t>
+  </si>
+  <si>
+    <t>RPA_Sale/[Front End]  Full app keyword search</t>
+  </si>
+  <si>
+    <t>Analysing the all tables to fetch all records and keep it as list and obtaining the keyword by filtering from the list and converting 
+the result with paging and pagelisted concept in MVC</t>
+  </si>
+  <si>
+    <t>Searching string in all tables from the entire database has been completed , whereas UI design and development are pending</t>
+  </si>
+  <si>
+    <t>Searching in all tables and fetching the results and displaying the results at bottom of the master pages, whereas other activities
+ like styling and crossref link or sublink tasks are pending.</t>
+  </si>
+  <si>
+    <t>Searching results are coming in right order along with query text, whereas a small design issue is pending and also no data found to be implemented.</t>
+  </si>
+  <si>
+    <t>No data found has been implemented if no records found and etc.
+Attended in RPASale_dev deployeement task</t>
+  </si>
+  <si>
+    <t>Today, I was engaged in rpa selenium tasks for DRS, GRS, and GRD
+DRS was done,
+GRS, till dowload portion is over and whereas, upload is pending as issue in converting xls to csv.</t>
+  </si>
+  <si>
+    <t>Jiffy_to_selenium</t>
+  </si>
+  <si>
+    <t>Conversion from jiffy to selenium for the tasks of Goods Receiving Summary and Goods Receiving details are completed,
+whereas the conversion of warranty is WIP</t>
+  </si>
+  <si>
+    <t>Leave on 22-05-2020</t>
+  </si>
+  <si>
+    <t>RPA Customization</t>
+  </si>
+  <si>
+    <t>Conversion from JIFFY to selenium for the tasks of DRS, GRS and GRD are completed, CSV conversion for warranty is in Pending.</t>
+  </si>
+  <si>
+    <t>Customization of RPA tasks named as GRS and GRD are completed,  no data found for warranty and csv header/contents  validations are in progress. Also DRS no data found is also pending.</t>
+  </si>
+  <si>
+    <t>DRS Daily, DRS Weekly and DRS Monthly are completed with download/upload and no data found.
+Warranty csv file is having issue and hence it has been shared to Mohan san.</t>
+  </si>
+  <si>
+    <t>Warranty CSV file is having uploading issue.</t>
+  </si>
+  <si>
+    <t>POC confirmation task  has been implemented at new bot, and it will work for download and upload success</t>
+  </si>
+  <si>
+    <t>1. Fine tuning with DRS, GRS and GRD are done.
+2. POC task has been implementation done with download/upload/nodata found/failed to download steps are tested and 
+3. OtherSales(extended warranty ) implementation is going on with PO values/withou PO values to get UnitPrice along with download and upload steps are in Progress.
+4. Mr Mohan san has asked to run GRS and GRD for all centers to know the success and issue while running continueously.</t>
+  </si>
+  <si>
+    <t>Tested for all services dynamically for DRS, GRS and GRD are done, In GRDetails a file moving issue after uploading.</t>
+  </si>
+  <si>
+    <t>POC Task tested and validated for downloading, uploading and for no data found with email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. POC Tasks for all centers has been developed  to download and upload
+2. GRS and GRDetails tasks are completed.
+3. CommunicationBoard task has been tested for SSC1, as could not find notification, we could not complete the test for all centers
+</t>
   </si>
 </sst>
 </file>
@@ -101,7 +187,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,22 +208,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -179,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,27 +285,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -252,46 +306,29 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -602,25 +639,340 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4">
+        <v>90</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4">
+        <v>95</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -639,18 +991,20 @@
       <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -659,49 +1013,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -710,26 +1064,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -752,7 +1107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -761,7 +1116,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -770,49 +1125,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -821,26 +1176,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -863,30 +1219,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -895,49 +1237,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -946,26 +1288,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -988,142 +1331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1132,7 +1340,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1141,49 +1349,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1192,26 +1400,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1234,7 +1443,131 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1243,7 +1576,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1252,49 +1585,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1303,26 +1636,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1345,119 +1679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23">
-        <v>43985</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="24">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1466,7 +1688,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1475,49 +1697,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1526,26 +1748,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1568,7 +1791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1577,7 +1800,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1586,49 +1809,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1637,26 +1860,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1679,7 +1903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1688,7 +1912,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1697,160 +1921,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_20200603.xlsx
+++ b/REVER_DailyTracker_20200603.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46072225-CA3A-478C-923A-E81BC91E86D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E1C549-CEAA-4EFA-A8BF-29A3FFC0CD3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="42">
   <si>
     <t>Task</t>
   </si>
@@ -178,6 +178,12 @@
 2. GRS and GRDetails tasks are completed.
 3. CommunicationBoard task has been tested for SSC1, as could not find notification, we could not complete the test for all centers
 </t>
+  </si>
+  <si>
+    <t>QMVAR</t>
+  </si>
+  <si>
+    <t>PO Confirmation issue</t>
   </si>
 </sst>
 </file>
@@ -187,7 +193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +212,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -249,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -285,11 +306,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -326,9 +361,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{DE3EE6B0-FDDC-4111-A290-3FBD1D125E4E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -643,22 +683,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -679,7 +719,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -689,8 +729,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -702,7 +742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -713,10 +753,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -730,9 +770,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -746,9 +786,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -762,8 +802,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -780,19 +820,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -810,13 +850,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -830,7 +870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -844,7 +884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -852,7 +892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -860,12 +900,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -873,7 +913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -884,7 +924,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -895,7 +935,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -906,12 +946,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -922,7 +962,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -933,12 +973,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -961,18 +1001,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -995,7 +1035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1004,7 +1044,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1013,46 +1053,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1069,22 +1109,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1107,16 +1147,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43985</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1125,46 +1170,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1185,18 +1230,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1219,7 +1264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1228,7 +1273,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1237,46 +1282,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1297,18 +1342,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1331,7 +1376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1340,7 +1385,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1349,46 +1394,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1409,18 +1454,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1443,7 +1488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1464,7 +1509,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1473,46 +1518,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1533,18 +1578,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1567,7 +1612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1576,7 +1621,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1585,46 +1630,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1645,18 +1690,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1679,7 +1724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1688,7 +1733,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1697,46 +1742,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1757,18 +1802,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1791,7 +1836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1800,7 +1845,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1809,46 +1854,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1869,18 +1914,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1903,7 +1948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1912,7 +1957,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1921,46 +1966,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200603.xlsx
+++ b/REVER_DailyTracker_20200603.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789B74BD-2045-4C52-8C5C-6B9A1E27FC73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="16">
   <si>
     <t>No</t>
   </si>
@@ -67,19 +73,21 @@
   <si>
     <t>In Progress</t>
   </si>
+  <si>
+    <t>Macro</t>
+  </si>
+  <si>
+    <t>Compeleted the changes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,162 +121,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,7 +140,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,194 +162,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -541,252 +212,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -796,7 +225,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -810,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -822,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="39" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -831,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -844,62 +273,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="標準 2" xfId="39"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1157,27 +542,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="104.714285714286" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1201,7 +586,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" s="20" customFormat="1" ht="28.9" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="21"/>
@@ -1219,23 +604,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1266,29 +651,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1346,23 +729,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1393,29 +776,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1459,23 +840,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1506,29 +887,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1554,7 +933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:7">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1565,7 +944,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="15.75" spans="1:7">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1576,23 +955,23 @@
       <c r="F3" s="7"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1623,29 +1002,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1689,23 +1066,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1736,29 +1113,244 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="10"/>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="11"/>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="12"/>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="13"/>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1"/>
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="10"/>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="11"/>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="12"/>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="13"/>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1802,23 +1394,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1849,131 +1441,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" s="1" customFormat="1"/>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="19" spans="3:3">
-      <c r="C19" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="10"/>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="11"/>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="12"/>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="13"/>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2017,23 +1505,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2064,29 +1552,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2130,23 +1616,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2177,29 +1663,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2243,23 +1727,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2290,120 +1774,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
-      <c r="C22" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="10"/>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="11"/>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="12"/>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="13"/>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>